--- a/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AED0D70-C3D8-4A74-A65C-A4C7F27F01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB967B7B-A76B-42D3-A25D-45B95C6E1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{752C3D86-B648-456A-817B-12A70A410E4C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D1740DE2-73A7-4E4C-9E53-F15E143267F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,27 +71,207 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
     <t>13,95%</t>
   </si>
   <si>
@@ -119,39 +299,9 @@
     <t>17,66%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,22%</t>
   </si>
   <si>
@@ -173,33 +323,6 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
@@ -221,127 +344,55 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>13,73%</t>
@@ -371,33 +422,6 @@
     <t>16,93%</t>
   </si>
   <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
@@ -419,30 +443,6 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
@@ -470,6 +470,168 @@
     <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
   </si>
   <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
     <t>19,07%</t>
   </si>
   <si>
@@ -497,27 +659,6 @@
     <t>22,07%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
     <t>1,59%</t>
   </si>
   <si>
@@ -545,30 +686,6 @@
     <t>2,45%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
     <t>1,25%</t>
   </si>
   <si>
@@ -587,127 +704,64 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>0,82%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>19,15%</t>
@@ -734,33 +788,6 @@
     <t>15,92%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
@@ -785,33 +812,6 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
@@ -830,6 +830,174 @@
     <t>Menores según frecuencia de sentirse triste en 2015 (Tasa respuesta: 47,32%)</t>
   </si>
   <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
     <t>9,96%</t>
   </si>
   <si>
@@ -857,33 +1025,6 @@
     <t>14,83%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
     <t>2,84%</t>
   </si>
   <si>
@@ -902,30 +1043,6 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
     <t>0,83%</t>
   </si>
   <si>
@@ -941,121 +1058,55 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>9,85%</t>
@@ -1082,30 +1133,6 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
     <t>2,97%</t>
   </si>
   <si>
@@ -1127,33 +1154,6 @@
     <t>3,37%</t>
   </si>
   <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
@@ -1175,6 +1175,159 @@
     <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
   </si>
   <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
     <t>7,59%</t>
   </si>
   <si>
@@ -1199,30 +1352,6 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -1238,33 +1367,6 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
     <t>2,72%</t>
   </si>
   <si>
@@ -1286,106 +1388,58 @@
     <t>4,09%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>4,42%</t>
@@ -1412,33 +1466,6 @@
     <t>8,14%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
     <t>1,69%</t>
   </si>
   <si>
@@ -1458,33 +1485,6 @@
   </si>
   <si>
     <t>3,08%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
   </si>
   <si>
     <t>2,76%</t>
@@ -1897,7 +1897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFC337F-210D-40E3-8C6D-B8CC2C430839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FBD646-2F98-4BEB-83B3-EA44E76CA542}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>38989</v>
+        <v>33476</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2302,10 +2302,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>42904</v>
+        <v>29729</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2317,10 +2317,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>81893</v>
+        <v>63205</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2338,10 +2338,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>87005</v>
+        <v>22780</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2353,10 +2353,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>85317</v>
+        <v>18583</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2368,10 +2368,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>172322</v>
+        <v>41363</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2389,10 +2389,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>680</v>
+        <v>8476</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2404,10 +2404,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>4803</v>
+        <v>6277</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2419,10 +2419,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>5483</v>
+        <v>14753</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2440,10 +2440,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>152234</v>
+        <v>685</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2455,34 +2455,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>129796</v>
+        <v>732</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1417</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>419</v>
-      </c>
-      <c r="N13" s="7">
-        <v>282030</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,46 +2494,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>720</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2783</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1369</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3397</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,102 +2542,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>813</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>545124</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>8476</v>
+        <v>152234</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>190</v>
+      </c>
+      <c r="I16" s="7">
+        <v>129796</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6277</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>419</v>
+      </c>
+      <c r="N16" s="7">
+        <v>282030</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14753</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,49 +2646,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="D17" s="7">
-        <v>22780</v>
+        <v>87005</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7">
+        <v>130</v>
+      </c>
+      <c r="I17" s="7">
+        <v>85317</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18583</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>260</v>
+      </c>
+      <c r="N17" s="7">
+        <v>172322</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M17" s="7">
-        <v>65</v>
-      </c>
-      <c r="N17" s="7">
-        <v>41363</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,46 +2697,46 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7">
-        <v>685</v>
+        <v>38989</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7">
+        <v>63</v>
+      </c>
+      <c r="I18" s="7">
+        <v>42904</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>732</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>121</v>
+      </c>
+      <c r="N18" s="7">
+        <v>81893</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1417</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>85</v>
@@ -2748,49 +2748,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>33476</v>
+        <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4803</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="7">
-        <v>43</v>
-      </c>
-      <c r="I19" s="7">
-        <v>29729</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5483</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="7">
+      <c r="P19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="N19" s="7">
-        <v>63205</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,43 +2802,43 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2783</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>720</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3397</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1369</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>100</v>
@@ -2850,49 +2850,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>265603</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>813</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>545124</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="D22" s="7">
-        <v>47465</v>
+        <v>185710</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>101</v>
@@ -2918,10 +2918,10 @@
         <v>103</v>
       </c>
       <c r="H22" s="7">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="I22" s="7">
-        <v>49182</v>
+        <v>159525</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>104</v>
@@ -2933,19 +2933,19 @@
         <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>142</v>
+        <v>512</v>
       </c>
       <c r="N22" s="7">
-        <v>96646</v>
+        <v>345235</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2960,13 @@
         <v>109785</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>159</v>
@@ -2975,13 +2975,13 @@
         <v>103900</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>325</v>
@@ -2990,13 +2990,13 @@
         <v>213685</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,25 +3005,25 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>1365</v>
+        <v>47465</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I24" s="7">
-        <v>5535</v>
+        <v>49182</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>121</v>
@@ -3035,10 +3035,10 @@
         <v>123</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="N24" s="7">
-        <v>6900</v>
+        <v>96646</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>124</v>
@@ -3047,7 +3047,7 @@
         <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,25 +3056,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>185710</v>
+        <v>1365</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H25" s="7">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>159525</v>
+        <v>5535</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>129</v>
@@ -3086,19 +3086,19 @@
         <v>131</v>
       </c>
       <c r="M25" s="7">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>345235</v>
+        <v>6900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3116,7 @@
         <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>135</v>
@@ -3164,13 +3164,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>477</v>
@@ -3179,13 +3179,13 @@
         <v>321645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>996</v>
@@ -3194,13 +3194,13 @@
         <v>667232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A979FD-B3DB-436D-9A20-ADC394BF73E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B172CF6-E713-4E6D-A9AC-E300D686B572}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,10 +3609,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>50783</v>
+        <v>34225</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>143</v>
@@ -3624,10 +3624,10 @@
         <v>145</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>47741</v>
+        <v>36227</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>146</v>
@@ -3639,10 +3639,10 @@
         <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>98524</v>
+        <v>70452</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>149</v>
@@ -3660,49 +3660,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>85310</v>
+        <v>16844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="7">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22529</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="7">
+        <v>55</v>
+      </c>
+      <c r="N11" s="7">
+        <v>39373</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="7">
-        <v>121</v>
-      </c>
-      <c r="I11" s="7">
-        <v>84835</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" s="7">
-        <v>246</v>
-      </c>
-      <c r="N11" s="7">
-        <v>170145</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,49 +3711,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>4229</v>
+        <v>12877</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>3353</v>
+        <v>7977</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7">
-        <v>7582</v>
+        <v>20854</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,49 +3762,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>122691</v>
+        <v>1451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>109338</v>
+        <v>3862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5313</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M13" s="7">
-        <v>335</v>
-      </c>
-      <c r="N13" s="7">
-        <v>232030</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,49 +3813,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>3320</v>
+        <v>777</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1374</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4753</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2151</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8073</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,102 +3864,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>266334</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>250020</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>748</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>516354</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="D16" s="7">
-        <v>12877</v>
+        <v>122691</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="7">
+        <v>154</v>
+      </c>
+      <c r="I16" s="7">
+        <v>109338</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>335</v>
+      </c>
+      <c r="N16" s="7">
+        <v>232030</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7977</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" s="7">
-        <v>29</v>
-      </c>
-      <c r="N16" s="7">
-        <v>20854</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,49 +3968,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7">
-        <v>16844</v>
+        <v>85310</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
+        <v>121</v>
+      </c>
+      <c r="I17" s="7">
+        <v>84835</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="7">
+        <v>246</v>
+      </c>
+      <c r="N17" s="7">
+        <v>170145</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22529</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M17" s="7">
-        <v>55</v>
-      </c>
-      <c r="N17" s="7">
-        <v>39373</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,49 +4019,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7">
-        <v>1451</v>
+        <v>50783</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="7">
+        <v>69</v>
+      </c>
+      <c r="I18" s="7">
+        <v>47741</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>143</v>
+      </c>
+      <c r="N18" s="7">
+        <v>98524</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3862</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M18" s="7">
-        <v>8</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5313</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,49 +4070,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>34225</v>
+        <v>4229</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3353</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H19" s="7">
-        <v>50</v>
-      </c>
-      <c r="I19" s="7">
-        <v>36227</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>12</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7582</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M19" s="7">
-        <v>98</v>
-      </c>
-      <c r="N19" s="7">
-        <v>70452</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,43 +4121,43 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>777</v>
+        <v>3320</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4753</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1374</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>220</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>2151</v>
+        <v>8073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>221</v>
@@ -4172,49 +4172,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>266334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>250020</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>748</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>516354</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,10 +4225,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="D22" s="7">
-        <v>63661</v>
+        <v>156916</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>223</v>
@@ -4240,10 +4240,10 @@
         <v>225</v>
       </c>
       <c r="H22" s="7">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="I22" s="7">
-        <v>55717</v>
+        <v>145565</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>226</v>
@@ -4255,10 +4255,10 @@
         <v>228</v>
       </c>
       <c r="M22" s="7">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="N22" s="7">
-        <v>119378</v>
+        <v>302481</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>229</v>
@@ -4267,7 +4267,7 @@
         <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4282,13 @@
         <v>102154</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>153</v>
@@ -4297,13 +4297,13 @@
         <v>107365</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
         <v>301</v>
@@ -4312,13 +4312,13 @@
         <v>209519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,49 +4327,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7">
-        <v>5680</v>
+        <v>63661</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I24" s="7">
-        <v>7215</v>
+        <v>55717</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M24" s="7">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="N24" s="7">
-        <v>12896</v>
+        <v>119378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,40 +4378,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>156916</v>
+        <v>5680</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H25" s="7">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>145565</v>
+        <v>7215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>253</v>
       </c>
       <c r="M25" s="7">
-        <v>433</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>302481</v>
+        <v>12896</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>254</v>
@@ -4438,7 +4438,7 @@
         <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>258</v>
@@ -4450,10 +4450,10 @@
         <v>6126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>259</v>
@@ -4465,7 +4465,7 @@
         <v>10224</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>260</v>
@@ -4486,13 +4486,13 @@
         <v>332508</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4501,13 +4501,13 @@
         <v>321989</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>941</v>
@@ -4516,13 +4516,13 @@
         <v>654497</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4541,7 +4541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109595A1-D904-492F-8C21-E3B34987DF0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DB50B1-9689-4B3A-BC73-05C9D3983F00}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,10 +4931,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>28061</v>
+        <v>44833</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4946,10 +4946,10 @@
         <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>39286</v>
+        <v>45609</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4961,10 +4961,10 @@
         <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="N10" s="7">
-        <v>67348</v>
+        <v>90442</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4982,10 +4982,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>88039</v>
+        <v>23223</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4997,10 +4997,10 @@
         <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>82254</v>
+        <v>29366</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -5012,10 +5012,10 @@
         <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="N11" s="7">
-        <v>170293</v>
+        <v>52589</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -5036,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>8012</v>
+        <v>7522</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>281</v>
@@ -5048,34 +5048,34 @@
         <v>283</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>3477</v>
+        <v>14122</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M12" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>11489</v>
+        <v>21644</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,49 +5084,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>155167</v>
+        <v>2721</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>138895</v>
+        <v>1692</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
-        <v>406</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>294061</v>
+        <v>4413</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,49 +5135,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1433</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>724</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>2350</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1348</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
       <c r="N14" s="7">
-        <v>3698</v>
+        <v>2157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,102 +5186,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>546888</v>
+        <v>171245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="D16" s="7">
-        <v>7522</v>
+        <v>155167</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I16" s="7">
-        <v>14122</v>
+        <v>138895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>406</v>
       </c>
       <c r="N16" s="7">
-        <v>21644</v>
+        <v>294061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,49 +5290,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D17" s="7">
-        <v>23223</v>
+        <v>88039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="I17" s="7">
-        <v>29366</v>
+        <v>82254</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="N17" s="7">
-        <v>52589</v>
+        <v>170293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,49 +5341,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>2721</v>
+        <v>28061</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="I18" s="7">
-        <v>1692</v>
+        <v>39286</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="N18" s="7">
-        <v>4413</v>
+        <v>67348</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,46 +5392,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>44833</v>
+        <v>8012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>45609</v>
+        <v>3477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>90442</v>
+        <v>11489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>333</v>
@@ -5443,46 +5443,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>1433</v>
+        <v>2350</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>724</v>
+        <v>1348</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>2157</v>
+        <v>3698</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>338</v>
@@ -5494,49 +5494,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>753</v>
       </c>
       <c r="N21" s="7">
-        <v>171245</v>
+        <v>546888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,49 +5547,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="D22" s="7">
-        <v>35583</v>
+        <v>200000</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="I22" s="7">
-        <v>53408</v>
+        <v>184503</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
-        <v>127</v>
+        <v>539</v>
       </c>
       <c r="N22" s="7">
-        <v>88992</v>
+        <v>384503</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5604,13 @@
         <v>111263</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -5619,13 +5619,13 @@
         <v>111619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M23" s="7">
         <v>309</v>
@@ -5634,13 +5634,13 @@
         <v>222882</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,49 +5649,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>10732</v>
+        <v>35583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I24" s="7">
-        <v>5169</v>
+        <v>53408</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M24" s="7">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="N24" s="7">
-        <v>15902</v>
+        <v>88992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,28 +5700,28 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>200000</v>
+        <v>10732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>184503</v>
+        <v>5169</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>366</v>
@@ -5730,10 +5730,10 @@
         <v>367</v>
       </c>
       <c r="M25" s="7">
-        <v>539</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>384503</v>
+        <v>15902</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>368</v>
@@ -5757,7 +5757,7 @@
         <v>3783</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>371</v>
@@ -5787,7 +5787,7 @@
         <v>5855</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>134</v>
@@ -5808,13 +5808,13 @@
         <v>361361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5823,13 +5823,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>1006</v>
@@ -5838,13 +5838,13 @@
         <v>718133</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5863,7 +5863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017ECED4-2265-4539-90C6-130ADBD3C0FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9B1A9F-8E09-4A68-9F24-01E6E8D1CDB2}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6253,10 +6253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>26613</v>
+        <v>51306</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>378</v>
@@ -6268,28 +6268,28 @@
         <v>380</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>15096</v>
+        <v>41972</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>116</v>
+      </c>
+      <c r="N10" s="7">
+        <v>93278</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="M10" s="7">
-        <v>49</v>
-      </c>
-      <c r="N10" s="7">
-        <v>41710</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>384</v>
@@ -6304,10 +6304,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>81685</v>
+        <v>11893</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>386</v>
@@ -6319,10 +6319,10 @@
         <v>388</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>62792</v>
+        <v>11317</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>389</v>
@@ -6331,22 +6331,22 @@
         <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="7">
+        <v>29</v>
+      </c>
+      <c r="N11" s="7">
+        <v>23210</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M11" s="7">
-        <v>172</v>
-      </c>
-      <c r="N11" s="7">
-        <v>144476</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,49 +6355,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>6345</v>
+        <v>1664</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>395</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>4792</v>
+        <v>3277</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>396</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>11137</v>
+        <v>4941</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>399</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,49 +6406,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>226555</v>
+        <v>725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>207801</v>
+        <v>1610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>404</v>
       </c>
       <c r="M13" s="7">
-        <v>548</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>434356</v>
+        <v>2335</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,49 +6457,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>9526</v>
+        <v>2010</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4277</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6287</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6882</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M14" s="7">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7">
-        <v>16409</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,102 +6508,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>350725</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>297363</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>800</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>648088</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="D16" s="7">
-        <v>1664</v>
+        <v>226555</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H16" s="7">
+        <v>279</v>
+      </c>
+      <c r="I16" s="7">
+        <v>207801</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3277</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>548</v>
+      </c>
+      <c r="N16" s="7">
+        <v>434356</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4941</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,49 +6612,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7">
-        <v>11893</v>
+        <v>81685</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>79</v>
+      </c>
+      <c r="I17" s="7">
+        <v>62792</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11317</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>172</v>
+      </c>
+      <c r="N17" s="7">
+        <v>144476</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="7">
-        <v>29</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23210</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,49 +6663,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7">
-        <v>725</v>
+        <v>26613</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15096</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1610</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="N18" s="7">
-        <v>2335</v>
+        <v>41710</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,49 +6714,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>51306</v>
+        <v>6345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>435</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>41972</v>
+        <v>4792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>93278</v>
+        <v>11137</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,46 +6765,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>2010</v>
+        <v>9526</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>443</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>4277</v>
+        <v>6882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>446</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>6287</v>
+        <v>16409</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>448</v>
@@ -6816,49 +6816,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>350725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>297363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>800</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>648088</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,49 +6869,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="D22" s="7">
-        <v>28277</v>
+        <v>277861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
-        <v>25</v>
+        <v>334</v>
       </c>
       <c r="I22" s="7">
-        <v>18373</v>
+        <v>249773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
-        <v>56</v>
+        <v>664</v>
       </c>
       <c r="N22" s="7">
-        <v>46650</v>
+        <v>527634</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6926,13 @@
         <v>93577</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H23" s="7">
         <v>94</v>
@@ -6941,13 +6941,13 @@
         <v>74109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -6956,13 +6956,13 @@
         <v>167686</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,49 +6971,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>7070</v>
+        <v>28277</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>6402</v>
+        <v>18373</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M24" s="7">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N24" s="7">
-        <v>13472</v>
+        <v>46650</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>473</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,46 +7022,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>330</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>277861</v>
+        <v>7070</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H25" s="7">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
-        <v>249773</v>
+        <v>6402</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M25" s="7">
-        <v>664</v>
+        <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>527634</v>
+        <v>13472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>480</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>481</v>
@@ -7082,7 +7082,7 @@
         <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>483</v>
@@ -7112,7 +7112,7 @@
         <v>487</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>488</v>
@@ -7130,13 +7130,13 @@
         <v>418322</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>474</v>
@@ -7145,13 +7145,13 @@
         <v>359816</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>962</v>
@@ -7160,13 +7160,13 @@
         <v>778138</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB967B7B-A76B-42D3-A25D-45B95C6E1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E33224-DF7A-4B20-A880-DD87C17D3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D1740DE2-73A7-4E4C-9E53-F15E143267F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB232BDA-F81D-4801-8776-93A2BF52C66F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="500">
   <si>
     <t>Menores según frecuencia de sentirse triste en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -68,1444 +68,1477 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2015 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1549,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1612,39 +1645,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1696,7 +1729,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1807,13 +1840,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1822,6 +1848,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1886,19 +1919,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FBD646-2F98-4BEB-83B3-EA44E76CA542}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B138E592-FBC8-46CE-B05B-2F4068F8EE0C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2287,49 +2340,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
-      </c>
-      <c r="D10" s="7">
-        <v>33476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
-      </c>
-      <c r="I10" s="7">
-        <v>29729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
-      </c>
-      <c r="N10" s="7">
-        <v>63205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,49 +2385,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
-      </c>
-      <c r="D11" s="7">
-        <v>22780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>65</v>
-      </c>
-      <c r="N11" s="7">
-        <v>41363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,49 +2430,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7">
-        <v>14753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,49 +2475,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,49 +2520,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,102 +2565,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>152234</v>
+        <v>649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>129796</v>
+        <v>1374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
-        <v>419</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>282030</v>
+        <v>2023</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,49 +2663,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>87005</v>
+        <v>685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>85317</v>
+        <v>732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>172322</v>
+        <v>1417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,49 +2714,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>38989</v>
+        <v>21202</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>42904</v>
+        <v>15482</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="N18" s="7">
-        <v>81893</v>
+        <v>36684</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,49 +2765,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>680</v>
+        <v>52523</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="7">
+        <v>70</v>
+      </c>
+      <c r="I19" s="7">
+        <v>45703</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4803</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N19" s="7">
-        <v>5483</v>
+        <v>98226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,49 +2816,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D20" s="7">
-        <v>613</v>
+        <v>66456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="I20" s="7">
-        <v>2783</v>
+        <v>64258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="N20" s="7">
-        <v>3397</v>
+        <v>130714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,102 +2867,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>813</v>
+        <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>545124</v>
+        <v>269063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>185710</v>
+        <v>613</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>159525</v>
+        <v>2129</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>345235</v>
+        <v>2743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,49 +2971,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>109785</v>
+        <v>680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>103900</v>
+        <v>4803</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
-        <v>325</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>213685</v>
+        <v>5483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +3022,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>47465</v>
+        <v>26263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I24" s="7">
-        <v>49182</v>
+        <v>33700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="N24" s="7">
-        <v>96646</v>
+        <v>59962</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,49 +3073,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7">
-        <v>1365</v>
+        <v>57262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="I25" s="7">
-        <v>5535</v>
+        <v>58197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="N25" s="7">
-        <v>6900</v>
+        <v>115459</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,49 +3124,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D26" s="7">
-        <v>1263</v>
+        <v>119254</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="I26" s="7">
-        <v>3503</v>
+        <v>95267</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="N26" s="7">
-        <v>4766</v>
+        <v>214521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,55 +3175,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>398169</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1263</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3503</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="7">
+        <v>7</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4766</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1365</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5535</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6900</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>70</v>
+      </c>
+      <c r="D30" s="7">
+        <v>47465</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="7">
+        <v>72</v>
+      </c>
+      <c r="I30" s="7">
+        <v>49182</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="7">
+        <v>142</v>
+      </c>
+      <c r="N30" s="7">
+        <v>96646</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>166</v>
+      </c>
+      <c r="D31" s="7">
+        <v>109785</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="7">
+        <v>159</v>
+      </c>
+      <c r="I31" s="7">
+        <v>103900</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="7">
+        <v>325</v>
+      </c>
+      <c r="N31" s="7">
+        <v>213685</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>279</v>
+      </c>
+      <c r="D32" s="7">
+        <v>185710</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7">
+        <v>233</v>
+      </c>
+      <c r="I32" s="7">
+        <v>159525</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="7">
+        <v>512</v>
+      </c>
+      <c r="N32" s="7">
+        <v>345235</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321645</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>996</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>667232</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3219,8 +3550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B172CF6-E713-4E6D-A9AC-E300D686B572}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1B493-36D4-4C88-BD0C-108061DABBEE}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3236,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3609,49 +3940,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7">
-        <v>34225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>98</v>
-      </c>
-      <c r="N10" s="7">
-        <v>70452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,49 +3985,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7">
-        <v>16844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
-      </c>
-      <c r="N11" s="7">
-        <v>39373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,49 +4030,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>29</v>
-      </c>
-      <c r="N12" s="7">
-        <v>20854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,49 +4075,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,49 +4120,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,102 +4165,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>122691</v>
+        <v>1358</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>109338</v>
+        <v>4267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>232030</v>
+        <v>5625</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,49 +4263,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>85310</v>
+        <v>2031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>84835</v>
+        <v>3862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>170145</v>
+        <v>5893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,49 +4314,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>50783</v>
+        <v>30463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>47741</v>
+        <v>19738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="N18" s="7">
-        <v>98524</v>
+        <v>50201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,49 +4365,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>4229</v>
+        <v>42863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
-        <v>3353</v>
+        <v>49743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="N19" s="7">
-        <v>7582</v>
+        <v>92607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,49 +4416,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D20" s="7">
-        <v>3320</v>
+        <v>79960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="I20" s="7">
-        <v>4753</v>
+        <v>77903</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="N20" s="7">
-        <v>8073</v>
+        <v>157864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,102 +4467,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>266334</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>250020</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>748</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>516354</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>156916</v>
+        <v>2740</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>145565</v>
+        <v>1859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>433</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>302481</v>
+        <v>4599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,49 +4571,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>102154</v>
+        <v>3649</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="H23" s="7">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>107365</v>
+        <v>3353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>209519</v>
+        <v>7002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,49 +4622,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>63661</v>
+        <v>33198</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="H24" s="7">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I24" s="7">
-        <v>55717</v>
+        <v>35979</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="M24" s="7">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="N24" s="7">
-        <v>119378</v>
+        <v>69177</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +4673,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7">
-        <v>5680</v>
+        <v>59291</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="I25" s="7">
-        <v>7215</v>
+        <v>57621</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="N25" s="7">
-        <v>12896</v>
+        <v>116912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,49 +4724,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="D26" s="7">
-        <v>4098</v>
+        <v>76956</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="7">
+        <v>94</v>
+      </c>
+      <c r="I26" s="7">
+        <v>67662</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6126</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="N26" s="7">
-        <v>10224</v>
+        <v>144618</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,55 +4775,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7">
+        <v>166474</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>495</v>
+      </c>
+      <c r="N27" s="7">
+        <v>342309</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4098</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6126</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M28" s="7">
+        <v>15</v>
+      </c>
+      <c r="N28" s="7">
+        <v>10224</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5680</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7215</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" s="7">
+        <v>20</v>
+      </c>
+      <c r="N29" s="7">
+        <v>12896</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>92</v>
+      </c>
+      <c r="D30" s="7">
+        <v>63661</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="7">
+        <v>80</v>
+      </c>
+      <c r="I30" s="7">
+        <v>55717</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="7">
+        <v>172</v>
+      </c>
+      <c r="N30" s="7">
+        <v>119378</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7">
+        <v>102154</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="7">
+        <v>153</v>
+      </c>
+      <c r="I31" s="7">
+        <v>107365</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" s="7">
+        <v>301</v>
+      </c>
+      <c r="N31" s="7">
+        <v>209519</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>229</v>
+      </c>
+      <c r="D32" s="7">
+        <v>156916</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="7">
+        <v>204</v>
+      </c>
+      <c r="I32" s="7">
+        <v>145565</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" s="7">
+        <v>433</v>
+      </c>
+      <c r="N32" s="7">
+        <v>302481</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>332508</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321989</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>941</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>654497</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4541,8 +5150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DB50B1-9689-4B3A-BC73-05C9D3983F00}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A852EC47-F28C-405A-96C1-3BFCD9BA8477}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4558,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4931,49 +5540,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
-      </c>
-      <c r="D10" s="7">
-        <v>44833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
-      </c>
-      <c r="I10" s="7">
-        <v>45609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>133</v>
-      </c>
-      <c r="N10" s="7">
-        <v>90442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,49 +5585,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7">
-        <v>23223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
-      </c>
-      <c r="I11" s="7">
-        <v>29366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>79</v>
-      </c>
-      <c r="N11" s="7">
-        <v>52589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,49 +5630,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>31</v>
-      </c>
-      <c r="N12" s="7">
-        <v>21644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,49 +5675,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2721</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,49 +5720,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,102 +5765,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>155167</v>
+        <v>1433</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>138895</v>
+        <v>724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>294061</v>
+        <v>2157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,49 +5863,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>88039</v>
+        <v>6213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>82254</v>
+        <v>3101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>170293</v>
+        <v>9314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,49 +5914,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>28061</v>
+        <v>17592</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>39286</v>
+        <v>24889</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="N18" s="7">
-        <v>67348</v>
+        <v>42481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,49 +5965,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D19" s="7">
-        <v>8012</v>
+        <v>53417</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7">
-        <v>3477</v>
+        <v>56242</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="N19" s="7">
-        <v>11489</v>
+        <v>109659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,49 +6016,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="D20" s="7">
-        <v>2350</v>
+        <v>108657</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>1348</v>
+        <v>101027</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="N20" s="7">
-        <v>3698</v>
+        <v>209684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,102 +6067,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>281629</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>753</v>
+        <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>546888</v>
+        <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>200000</v>
+        <v>2350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>184503</v>
+        <v>1348</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>384503</v>
+        <v>3698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,49 +6171,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>111263</v>
+        <v>4519</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>111619</v>
+        <v>2068</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="M23" s="7">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>222882</v>
+        <v>6587</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,49 +6222,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>35583</v>
+        <v>17991</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="H24" s="7">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I24" s="7">
-        <v>53408</v>
+        <v>28519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="M24" s="7">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="N24" s="7">
-        <v>88992</v>
+        <v>46510</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,49 +6273,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D25" s="7">
-        <v>10732</v>
+        <v>57845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="I25" s="7">
-        <v>5169</v>
+        <v>55378</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="N25" s="7">
-        <v>15902</v>
+        <v>113223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,49 +6324,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D26" s="7">
-        <v>3783</v>
+        <v>91342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="I26" s="7">
-        <v>2071</v>
+        <v>83476</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="N26" s="7">
-        <v>5855</v>
+        <v>174819</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,55 +6375,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3783</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2071</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M28" s="7">
+        <v>8</v>
+      </c>
+      <c r="N28" s="7">
+        <v>5855</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7">
+        <v>10732</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5169</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M29" s="7">
+        <v>23</v>
+      </c>
+      <c r="N29" s="7">
+        <v>15902</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7">
+        <v>35583</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H30" s="7">
+        <v>77</v>
+      </c>
+      <c r="I30" s="7">
+        <v>53408</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M30" s="7">
+        <v>127</v>
+      </c>
+      <c r="N30" s="7">
+        <v>88992</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>153</v>
+      </c>
+      <c r="D31" s="7">
+        <v>111263</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H31" s="7">
+        <v>156</v>
+      </c>
+      <c r="I31" s="7">
+        <v>111619</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M31" s="7">
+        <v>309</v>
+      </c>
+      <c r="N31" s="7">
+        <v>222882</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>273</v>
+      </c>
+      <c r="D32" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H32" s="7">
+        <v>266</v>
+      </c>
+      <c r="I32" s="7">
+        <v>184503</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M32" s="7">
+        <v>539</v>
+      </c>
+      <c r="N32" s="7">
+        <v>384503</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>361361</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>510</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356772</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>1006</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>718133</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5863,8 +6750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9B1A9F-8E09-4A68-9F24-01E6E8D1CDB2}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ED0A48-54A7-4FBD-A56A-4154474718EB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5880,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6253,49 +7140,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
-      </c>
-      <c r="D10" s="7">
-        <v>51306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
-      </c>
-      <c r="I10" s="7">
-        <v>41972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
-      </c>
-      <c r="N10" s="7">
-        <v>93278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,49 +7185,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,49 +7230,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,49 +7275,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,49 +7320,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,102 +7365,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>226555</v>
+        <v>5667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>207801</v>
+        <v>6017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
-        <v>548</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>434356</v>
+        <v>11684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,49 +7463,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>81685</v>
+        <v>1639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>62792</v>
+        <v>2024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>144476</v>
+        <v>3663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,49 +7514,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>26613</v>
+        <v>6039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>15096</v>
+        <v>7672</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>33</v>
       </c>
       <c r="M18" s="7">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>41710</v>
+        <v>13711</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>402</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,49 +7565,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>6345</v>
+        <v>26835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>4792</v>
+        <v>25482</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>11137</v>
+        <v>52316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,49 +7616,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D20" s="7">
-        <v>9526</v>
+        <v>123459</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="I20" s="7">
-        <v>6882</v>
+        <v>92611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="N20" s="7">
-        <v>16409</v>
+        <v>216069</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,102 +7667,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>350725</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>297363</v>
+        <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>800</v>
+        <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>648088</v>
+        <v>297444</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>330</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>277861</v>
+        <v>5870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
-        <v>334</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>249773</v>
+        <v>5142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
-        <v>664</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>527634</v>
+        <v>11011</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,49 +7771,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>93577</v>
+        <v>5431</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>74109</v>
+        <v>4378</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>462</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="M23" s="7">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>167686</v>
+        <v>9810</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>464</v>
+        <v>25</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,49 +7822,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>28277</v>
+        <v>22238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>18373</v>
+        <v>10701</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="M24" s="7">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N24" s="7">
-        <v>46650</v>
+        <v>32939</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,49 +7873,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>7070</v>
+        <v>66743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H25" s="7">
+        <v>64</v>
+      </c>
+      <c r="I25" s="7">
+        <v>48627</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M25" s="7">
         <v>139</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6402</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M25" s="7">
-        <v>16</v>
-      </c>
       <c r="N25" s="7">
-        <v>13472</v>
+        <v>115370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,49 +7924,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D26" s="7">
-        <v>11537</v>
+        <v>154403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I26" s="7">
-        <v>11159</v>
+        <v>157162</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
-        <v>25</v>
+        <v>391</v>
       </c>
       <c r="N26" s="7">
-        <v>22696</v>
+        <v>311565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,55 +7975,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>293</v>
+      </c>
+      <c r="D27" s="7">
+        <v>254684</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>297</v>
+      </c>
+      <c r="I27" s="7">
+        <v>226010</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>590</v>
+      </c>
+      <c r="N27" s="7">
+        <v>480694</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11537</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H28" s="7">
+        <v>12</v>
+      </c>
+      <c r="I28" s="7">
+        <v>11159</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M28" s="7">
+        <v>25</v>
+      </c>
+      <c r="N28" s="7">
+        <v>22696</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7070</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" s="7">
+        <v>9</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6402</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>13472</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>28277</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <v>18373</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M30" s="7">
+        <v>56</v>
+      </c>
+      <c r="N30" s="7">
+        <v>46650</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>107</v>
+      </c>
+      <c r="D31" s="7">
+        <v>93577</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H31" s="7">
+        <v>94</v>
+      </c>
+      <c r="I31" s="7">
+        <v>74109</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="M31" s="7">
+        <v>201</v>
+      </c>
+      <c r="N31" s="7">
+        <v>167686</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D27" s="7">
+      <c r="P31" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>330</v>
+      </c>
+      <c r="D32" s="7">
+        <v>277861</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H32" s="7">
+        <v>334</v>
+      </c>
+      <c r="I32" s="7">
+        <v>249773</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M32" s="7">
+        <v>664</v>
+      </c>
+      <c r="N32" s="7">
+        <v>527634</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>488</v>
+      </c>
+      <c r="D33" s="7">
         <v>418322</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>359816</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>962</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>778138</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E33224-DF7A-4B20-A880-DD87C17D3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7017E5-C968-47DF-A30A-B5AB4CEA14F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB232BDA-F81D-4801-8776-93A2BF52C66F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0846F398-0AD8-4208-ABB1-6DF791E435CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="508">
   <si>
     <t>Menores según frecuencia de sentirse triste en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -101,13 +101,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -116,1429 +116,1453 @@
     <t>0,24%</t>
   </si>
   <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>24,78%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B138E592-FBC8-46CE-B05B-2F4068F8EE0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C28BEE-2F2A-46BF-9C1D-0EE7F24DDA6F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2977,13 +3001,13 @@
         <v>680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2992,13 +3016,13 @@
         <v>4803</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3007,13 +3031,13 @@
         <v>5483</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3052,13 @@
         <v>26263</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -3043,13 +3067,13 @@
         <v>33700</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -3058,13 +3082,13 @@
         <v>59962</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3103,13 @@
         <v>57262</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>89</v>
@@ -3094,13 +3118,13 @@
         <v>58197</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -3109,13 +3133,13 @@
         <v>115459</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3154,13 @@
         <v>119254</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -3145,13 +3169,13 @@
         <v>95267</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
@@ -3160,13 +3184,13 @@
         <v>214521</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3258,13 @@
         <v>1263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -3249,13 +3273,13 @@
         <v>3503</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3264,10 +3288,10 @@
         <v>4766</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>109</v>
@@ -3291,7 +3315,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3300,13 +3324,13 @@
         <v>5535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3315,13 +3339,13 @@
         <v>6900</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3360,13 @@
         <v>47465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>72</v>
@@ -3351,13 +3375,13 @@
         <v>49182</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -3366,13 +3390,13 @@
         <v>96646</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3411,13 @@
         <v>109785</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H31" s="7">
         <v>159</v>
@@ -3402,13 +3426,13 @@
         <v>103900</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>325</v>
@@ -3417,13 +3441,13 @@
         <v>213685</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3462,13 @@
         <v>185710</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7">
         <v>233</v>
@@ -3453,13 +3477,13 @@
         <v>159525</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M32" s="7">
         <v>512</v>
@@ -3468,13 +3492,13 @@
         <v>345235</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3554,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1B493-36D4-4C88-BD0C-108061DABBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A79ED7-6BA8-49B5-AB04-471B900DCEDA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3567,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4218,13 +4242,13 @@
         <v>1358</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4233,13 +4257,13 @@
         <v>4267</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4248,13 +4272,13 @@
         <v>5625</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,7 +4296,7 @@
         <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>153</v>
@@ -4404,10 +4428,10 @@
         <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4446,13 @@
         <v>79960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -4437,13 +4461,13 @@
         <v>77903</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>225</v>
@@ -4452,13 +4476,13 @@
         <v>157864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4550,13 @@
         <v>2740</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4541,13 +4565,13 @@
         <v>1859</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -4556,10 +4580,10 @@
         <v>4599</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>192</v>
@@ -4610,7 +4634,7 @@
         <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>200</v>
@@ -4748,10 +4772,10 @@
         <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -4760,13 +4784,13 @@
         <v>144618</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4858,13 @@
         <v>4098</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -4849,13 +4873,13 @@
         <v>6126</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -4864,13 +4888,13 @@
         <v>10224</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4909,13 @@
         <v>5680</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4900,13 +4924,13 @@
         <v>7215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4915,13 +4939,13 @@
         <v>12896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4960,13 @@
         <v>63661</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H30" s="7">
         <v>80</v>
@@ -4951,13 +4975,13 @@
         <v>55717</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -4966,13 +4990,13 @@
         <v>119378</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5011,13 @@
         <v>102154</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H31" s="7">
         <v>153</v>
@@ -5002,13 +5026,13 @@
         <v>107365</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M31" s="7">
         <v>301</v>
@@ -5017,13 +5041,13 @@
         <v>209519</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5062,13 @@
         <v>156916</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H32" s="7">
         <v>204</v>
@@ -5053,13 +5077,13 @@
         <v>145565</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M32" s="7">
         <v>433</v>
@@ -5068,13 +5092,13 @@
         <v>302481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5154,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A852EC47-F28C-405A-96C1-3BFCD9BA8477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7FA7CA-0A57-4FE8-90DE-6C32FCCA2F9B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5167,7 +5191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5818,13 +5842,13 @@
         <v>1433</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5839,7 +5863,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5848,13 +5872,13 @@
         <v>2157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5893,13 @@
         <v>6213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5884,13 +5908,13 @@
         <v>3101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5899,13 +5923,13 @@
         <v>9314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5944,13 @@
         <v>17592</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5935,13 +5959,13 @@
         <v>24889</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -5950,13 +5974,13 @@
         <v>42481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5995,13 @@
         <v>53417</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -5986,13 +6010,13 @@
         <v>56242</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -6001,13 +6025,13 @@
         <v>109659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6046,13 @@
         <v>108657</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -6037,13 +6061,13 @@
         <v>101027</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>296</v>
@@ -6052,13 +6076,13 @@
         <v>209684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6150,13 @@
         <v>2350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6141,13 +6165,13 @@
         <v>1348</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6156,13 +6180,13 @@
         <v>3698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6201,13 @@
         <v>4519</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -6192,13 +6216,13 @@
         <v>2068</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -6207,13 +6231,13 @@
         <v>6587</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6252,13 @@
         <v>17991</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -6243,13 +6267,13 @@
         <v>28519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -6258,13 +6282,13 @@
         <v>46510</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6303,13 @@
         <v>57845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -6294,13 +6318,13 @@
         <v>55378</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -6309,13 +6333,13 @@
         <v>113223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6354,13 @@
         <v>91342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -6345,13 +6369,13 @@
         <v>83476</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -6360,13 +6384,13 @@
         <v>174819</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6458,13 @@
         <v>3783</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6449,13 +6473,13 @@
         <v>2071</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6464,13 +6488,13 @@
         <v>5855</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6509,13 @@
         <v>10732</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>353</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6500,13 +6524,13 @@
         <v>5169</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -6515,13 +6539,13 @@
         <v>15902</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6560,13 @@
         <v>35583</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H30" s="7">
         <v>77</v>
@@ -6551,13 +6575,13 @@
         <v>53408</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M30" s="7">
         <v>127</v>
@@ -6566,13 +6590,13 @@
         <v>88992</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>369</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6611,13 @@
         <v>111263</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H31" s="7">
         <v>156</v>
@@ -6602,13 +6626,13 @@
         <v>111619</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M31" s="7">
         <v>309</v>
@@ -6617,13 +6641,13 @@
         <v>222882</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6662,13 @@
         <v>200000</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H32" s="7">
         <v>266</v>
@@ -6653,13 +6677,13 @@
         <v>184503</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M32" s="7">
         <v>539</v>
@@ -6668,13 +6692,13 @@
         <v>384503</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6754,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6750,7 +6774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ED0A48-54A7-4FBD-A56A-4154474718EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AF4243-505F-4078-A422-B7BB2756A26A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,7 +6791,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7418,13 +7442,13 @@
         <v>5667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7433,13 +7457,13 @@
         <v>6017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -7448,13 +7472,13 @@
         <v>11684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7493,13 @@
         <v>1639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>148</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7484,13 +7508,13 @@
         <v>2024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -7499,13 +7523,13 @@
         <v>3663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7544,13 @@
         <v>6039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>399</v>
+        <v>235</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7535,13 +7559,13 @@
         <v>7672</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>236</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -7550,13 +7574,13 @@
         <v>13711</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7595,13 @@
         <v>26835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -7586,13 +7610,13 @@
         <v>25482</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -7601,13 +7625,13 @@
         <v>52316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7646,13 @@
         <v>123459</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -7637,13 +7661,13 @@
         <v>92611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>273</v>
@@ -7652,13 +7676,13 @@
         <v>216069</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7750,13 @@
         <v>5870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7741,13 +7765,13 @@
         <v>5142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -7756,13 +7780,13 @@
         <v>11011</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7801,13 @@
         <v>5431</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -7792,13 +7816,13 @@
         <v>4378</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -7807,13 +7831,13 @@
         <v>9810</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,13 +7852,13 @@
         <v>22238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -7843,13 +7867,13 @@
         <v>10701</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -7858,13 +7882,13 @@
         <v>32939</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7903,13 @@
         <v>66743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -7894,13 +7918,13 @@
         <v>48627</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -7909,13 +7933,13 @@
         <v>115370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7954,13 @@
         <v>154403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>208</v>
@@ -7945,13 +7969,13 @@
         <v>157162</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>391</v>
@@ -7960,13 +7984,13 @@
         <v>311565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8058,13 @@
         <v>11537</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -8049,13 +8073,13 @@
         <v>11159</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -8064,13 +8088,13 @@
         <v>22696</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8109,13 @@
         <v>7070</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -8100,13 +8124,13 @@
         <v>6402</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -8115,13 +8139,13 @@
         <v>13472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>350</v>
+        <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8160,13 @@
         <v>28277</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -8151,13 +8175,13 @@
         <v>18373</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -8166,13 +8190,13 @@
         <v>46650</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,13 +8211,13 @@
         <v>93577</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H31" s="7">
         <v>94</v>
@@ -8202,13 +8226,13 @@
         <v>74109</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>486</v>
+        <v>120</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="M31" s="7">
         <v>201</v>
@@ -8217,13 +8241,13 @@
         <v>167686</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8262,13 @@
         <v>277861</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H32" s="7">
         <v>334</v>
@@ -8253,13 +8277,13 @@
         <v>249773</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M32" s="7">
         <v>664</v>
@@ -8268,13 +8292,13 @@
         <v>527634</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,7 +8354,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7017E5-C968-47DF-A30A-B5AB4CEA14F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD21A1D6-42F8-4192-83B1-744D5132D782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0846F398-0AD8-4208-ABB1-6DF791E435CC}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{C72886B4-34EE-42BE-B7F1-E47326945C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="499">
   <si>
     <t>Menores según frecuencia de sentirse triste en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -95,1474 +95,1447 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2016 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>8,76%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C28BEE-2F2A-46BF-9C1D-0EE7F24DDA6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5722552C-C1EF-4A2B-8519-FE6524F443A1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,10 +2609,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>649</v>
+        <v>1374</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2651,10 +2624,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1374</v>
+        <v>649</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2690,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>685</v>
+        <v>732</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
@@ -2705,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>732</v>
+        <v>685</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>28</v>
@@ -2738,10 +2711,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>21202</v>
+        <v>15482</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -2753,10 +2726,10 @@
         <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>15482</v>
+        <v>21202</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>35</v>
@@ -2789,10 +2762,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>52523</v>
+        <v>45703</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>41</v>
@@ -2804,10 +2777,10 @@
         <v>43</v>
       </c>
       <c r="H19" s="7">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7">
-        <v>45703</v>
+        <v>52523</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>44</v>
@@ -2840,10 +2813,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>66456</v>
+        <v>64258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>50</v>
@@ -2855,10 +2828,10 @@
         <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I20" s="7">
-        <v>64258</v>
+        <v>66456</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>53</v>
@@ -2891,25 +2864,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>191</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2944,31 +2917,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>613</v>
+        <v>2129</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>613</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2129</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>65</v>
@@ -2995,34 +2968,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4803</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>680</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4803</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3031,13 +3004,13 @@
         <v>5483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,34 +3019,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7">
+        <v>33700</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="7">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>26263</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="7">
-        <v>49</v>
-      </c>
-      <c r="I24" s="7">
-        <v>33700</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -3082,13 +3055,13 @@
         <v>59962</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,34 +3070,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>89</v>
+      </c>
+      <c r="D25" s="7">
+        <v>58197</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="7">
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
+        <v>86</v>
+      </c>
+      <c r="I25" s="7">
         <v>57262</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="J25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="7">
-        <v>58197</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -3133,13 +3106,13 @@
         <v>115459</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,34 +3121,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>138</v>
+      </c>
+      <c r="D26" s="7">
+        <v>95267</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="7">
         <v>180</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>119254</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="7">
-        <v>138</v>
-      </c>
-      <c r="I26" s="7">
-        <v>95267</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
@@ -3184,13 +3157,13 @@
         <v>214521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,25 +3172,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>286</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>286</v>
-      </c>
-      <c r="I27" s="7">
-        <v>194097</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3252,31 +3225,31 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3503</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>1263</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3503</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>107</v>
@@ -3291,10 +3264,10 @@
         <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,34 +3276,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5535</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>1365</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="7">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5535</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3339,13 +3312,13 @@
         <v>6900</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,34 +3327,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>72</v>
+      </c>
+      <c r="D30" s="7">
+        <v>49182</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
         <v>70</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>47465</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="7">
-        <v>72</v>
-      </c>
-      <c r="I30" s="7">
-        <v>49182</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -3390,13 +3363,13 @@
         <v>96646</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,34 +3378,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>159</v>
+      </c>
+      <c r="D31" s="7">
+        <v>103900</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
         <v>166</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>109785</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="7">
-        <v>159</v>
-      </c>
-      <c r="I31" s="7">
-        <v>103900</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>325</v>
@@ -3441,13 +3414,13 @@
         <v>213685</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,34 +3429,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>233</v>
+      </c>
+      <c r="D32" s="7">
+        <v>159525</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
         <v>279</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>185710</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="7">
-        <v>233</v>
-      </c>
-      <c r="I32" s="7">
-        <v>159525</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M32" s="7">
         <v>512</v>
@@ -3492,13 +3465,13 @@
         <v>345235</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,25 +3480,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>477</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>477</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321645</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -3554,7 +3527,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A79ED7-6BA8-49B5-AB04-471B900DCEDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5221562A-42C0-4E12-8338-B6E2E2327813}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3591,7 +3564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4236,34 +4209,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4267</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1358</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4267</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4272,13 +4245,13 @@
         <v>5625</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,34 +4260,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3862</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2031</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3862</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4323,13 +4296,13 @@
         <v>5893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,34 +4311,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19738</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="7">
         <v>43</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>30463</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19738</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -4374,13 +4347,13 @@
         <v>50201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,34 +4362,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>71</v>
+      </c>
+      <c r="D19" s="7">
+        <v>49743</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="7">
         <v>62</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>42863</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="7">
-        <v>71</v>
-      </c>
-      <c r="I19" s="7">
-        <v>49743</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -4425,13 +4398,13 @@
         <v>92607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,34 +4413,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>110</v>
+      </c>
+      <c r="D20" s="7">
+        <v>77903</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="7">
         <v>115</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>79960</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="7">
-        <v>110</v>
-      </c>
-      <c r="I20" s="7">
-        <v>77903</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>225</v>
@@ -4476,13 +4449,13 @@
         <v>157864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,25 +4464,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4544,34 +4517,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1859</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>2740</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1859</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -4580,13 +4553,13 @@
         <v>4599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,34 +4568,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3353</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="7">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>3649</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3353</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -4631,13 +4604,13 @@
         <v>7002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,34 +4619,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7">
+        <v>35979</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="7">
         <v>49</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>33198</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="7">
-        <v>52</v>
-      </c>
-      <c r="I24" s="7">
-        <v>35979</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M24" s="7">
         <v>101</v>
@@ -4682,13 +4655,13 @@
         <v>69177</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,34 +4670,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7">
+        <v>57621</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7">
         <v>86</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>59291</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="7">
-        <v>82</v>
-      </c>
-      <c r="I25" s="7">
-        <v>57621</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -4733,13 +4706,13 @@
         <v>116912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,34 +4721,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>94</v>
+      </c>
+      <c r="D26" s="7">
+        <v>67662</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="7">
         <v>114</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>76956</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H26" s="7">
-        <v>94</v>
-      </c>
-      <c r="I26" s="7">
-        <v>67662</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -4784,13 +4757,13 @@
         <v>144618</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,25 +4772,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166474</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175834</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166474</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4852,34 +4825,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6126</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" s="7">
         <v>6</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>4098</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H28" s="7">
-        <v>9</v>
-      </c>
-      <c r="I28" s="7">
-        <v>6126</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -4888,13 +4861,13 @@
         <v>10224</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,34 +4876,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7215</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="7">
         <v>9</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>5680</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="7">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7215</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4939,13 +4912,13 @@
         <v>12896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,34 +4927,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>80</v>
+      </c>
+      <c r="D30" s="7">
+        <v>55717</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" s="7">
         <v>92</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>63661</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30" s="7">
-        <v>80</v>
-      </c>
-      <c r="I30" s="7">
-        <v>55717</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -4990,13 +4963,13 @@
         <v>119378</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,34 +4978,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>153</v>
+      </c>
+      <c r="D31" s="7">
+        <v>107365</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="7">
         <v>148</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>102154</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H31" s="7">
-        <v>153</v>
-      </c>
-      <c r="I31" s="7">
-        <v>107365</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" s="7">
         <v>301</v>
@@ -5041,13 +5014,13 @@
         <v>209519</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,34 +5029,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>204</v>
+      </c>
+      <c r="D32" s="7">
+        <v>145565</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H32" s="7">
         <v>229</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>156916</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="7">
-        <v>204</v>
-      </c>
-      <c r="I32" s="7">
-        <v>145565</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M32" s="7">
         <v>433</v>
@@ -5092,13 +5065,13 @@
         <v>302481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,25 +5080,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321989</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>484</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>332508</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321989</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -5154,7 +5127,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7FA7CA-0A57-4FE8-90DE-6C32FCCA2F9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B06DF3-C989-4F97-9666-70AD6F0EF7AB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5191,7 +5164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5836,34 +5809,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1433</v>
+        <v>724</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>724</v>
+        <v>1433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5872,13 +5845,13 @@
         <v>2157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,34 +5860,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3101</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>6213</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3101</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5923,13 +5896,13 @@
         <v>9314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,34 +5911,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7">
+        <v>24889</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>17592</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="7">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24889</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -5974,13 +5947,13 @@
         <v>42481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,34 +5962,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>80</v>
+      </c>
+      <c r="D19" s="7">
+        <v>56242</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="7">
         <v>75</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>53417</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56242</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -6025,13 +5998,13 @@
         <v>109659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,34 +6013,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>146</v>
+      </c>
+      <c r="D20" s="7">
+        <v>101027</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20" s="7">
         <v>150</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>108657</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H20" s="7">
-        <v>146</v>
-      </c>
-      <c r="I20" s="7">
-        <v>101027</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>296</v>
@@ -6076,13 +6049,13 @@
         <v>209684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,25 +6064,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -6144,34 +6117,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1348</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>2350</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1348</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6180,13 +6153,13 @@
         <v>3698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,34 +6168,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2068</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H23" s="7">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>4519</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2068</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -6231,13 +6204,13 @@
         <v>6587</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,34 +6219,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7">
+        <v>28519</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>17991</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="7">
-        <v>42</v>
-      </c>
-      <c r="I24" s="7">
-        <v>28519</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -6282,13 +6255,13 @@
         <v>46510</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,34 +6270,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>55378</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="7">
         <v>78</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>57845</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="7">
-        <v>76</v>
-      </c>
-      <c r="I25" s="7">
-        <v>55378</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -6333,10 +6306,10 @@
         <v>113223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>340</v>
@@ -6348,10 +6321,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" s="7">
-        <v>91342</v>
+        <v>83476</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>341</v>
@@ -6363,10 +6336,10 @@
         <v>343</v>
       </c>
       <c r="H26" s="7">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I26" s="7">
-        <v>83476</v>
+        <v>91342</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>344</v>
@@ -6399,25 +6372,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -6452,34 +6425,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2071</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>3783</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2071</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="K28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6488,13 +6461,13 @@
         <v>5855</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,34 +6476,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5169</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="7">
         <v>15</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>10732</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="H29" s="7">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5169</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -6539,13 +6512,13 @@
         <v>15902</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,34 +6527,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>77</v>
+      </c>
+      <c r="D30" s="7">
+        <v>53408</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H30" s="7">
         <v>50</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>35583</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H30" s="7">
-        <v>77</v>
-      </c>
-      <c r="I30" s="7">
-        <v>53408</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M30" s="7">
         <v>127</v>
@@ -6590,13 +6563,13 @@
         <v>88992</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,34 +6578,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>156</v>
+      </c>
+      <c r="D31" s="7">
+        <v>111619</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H31" s="7">
         <v>153</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>111263</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="H31" s="7">
-        <v>156</v>
-      </c>
-      <c r="I31" s="7">
-        <v>111619</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M31" s="7">
         <v>309</v>
@@ -6641,13 +6614,13 @@
         <v>222882</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,34 +6629,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>266</v>
+      </c>
+      <c r="D32" s="7">
+        <v>184503</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H32" s="7">
         <v>273</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>200000</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="H32" s="7">
-        <v>266</v>
-      </c>
-      <c r="I32" s="7">
-        <v>184503</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M32" s="7">
         <v>539</v>
@@ -6692,13 +6665,13 @@
         <v>384503</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,25 +6680,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>510</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>496</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>361361</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>510</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356772</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -6754,7 +6727,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AF4243-505F-4078-A422-B7BB2756A26A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7039B886-450E-40E2-8D39-17BC4E270275}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6791,7 +6764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7436,49 +7409,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5559</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
-        <v>5667</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>5497</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6017</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>11684</v>
+        <v>11056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,49 +7460,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1889</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1639</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>1618</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2024</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>3663</v>
+        <v>3508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,49 +7511,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7624</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
-        <v>6039</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
       <c r="I18" s="7">
-        <v>7672</v>
+        <v>6222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>13711</v>
+        <v>13846</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,49 +7562,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>24972</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H19" s="7">
         <v>32</v>
       </c>
-      <c r="D19" s="7">
-        <v>26835</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="7">
-        <v>30</v>
-      </c>
       <c r="I19" s="7">
-        <v>25482</v>
+        <v>26576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>52316</v>
+        <v>51548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,49 +7613,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>126</v>
+      </c>
+      <c r="D20" s="7">
+        <v>91242</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H20" s="7">
         <v>147</v>
       </c>
-      <c r="D20" s="7">
-        <v>123459</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="7">
-        <v>126</v>
-      </c>
       <c r="I20" s="7">
-        <v>92611</v>
+        <v>131415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>273</v>
       </c>
       <c r="N20" s="7">
-        <v>216069</v>
+        <v>222657</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,25 +7664,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>195</v>
       </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>177</v>
-      </c>
       <c r="I21" s="7">
-        <v>133806</v>
+        <v>171327</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7724,7 +7697,7 @@
         <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>297444</v>
+        <v>302614</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7744,49 +7717,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4044</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H22" s="7">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
-        <v>5870</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
       <c r="I22" s="7">
-        <v>5142</v>
+        <v>5472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>11011</v>
+        <v>9516</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,49 +7768,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4066</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
-        <v>5431</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="I23" s="7">
+        <v>8334</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M23" s="7">
+        <v>11</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12400</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="H23" s="7">
-        <v>6</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4378</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="M23" s="7">
-        <v>11</v>
-      </c>
-      <c r="N23" s="7">
-        <v>9810</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,49 +7819,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10453</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
-        <v>22238</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H24" s="7">
-        <v>14</v>
-      </c>
       <c r="I24" s="7">
-        <v>10701</v>
+        <v>23141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
       </c>
       <c r="N24" s="7">
-        <v>32939</v>
+        <v>33594</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>442</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,49 +7870,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7">
+        <v>46780</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H25" s="7">
         <v>75</v>
       </c>
-      <c r="D25" s="7">
-        <v>66743</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>66723</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H25" s="7">
-        <v>64</v>
-      </c>
-      <c r="I25" s="7">
-        <v>48627</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
       </c>
       <c r="N25" s="7">
-        <v>115370</v>
+        <v>113503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,49 +7921,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>208</v>
+      </c>
+      <c r="D26" s="7">
+        <v>171971</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26" s="7">
         <v>183</v>
       </c>
-      <c r="D26" s="7">
-        <v>154403</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>164309</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H26" s="7">
-        <v>208</v>
-      </c>
-      <c r="I26" s="7">
-        <v>157162</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>391</v>
       </c>
       <c r="N26" s="7">
-        <v>311565</v>
+        <v>336280</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,25 +7972,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>297</v>
+      </c>
+      <c r="D27" s="7">
+        <v>237313</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>293</v>
       </c>
-      <c r="D27" s="7">
-        <v>254684</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>297</v>
-      </c>
       <c r="I27" s="7">
-        <v>226010</v>
+        <v>267979</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -8032,7 +8005,7 @@
         <v>590</v>
       </c>
       <c r="N27" s="7">
-        <v>480694</v>
+        <v>505292</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -8052,49 +8025,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9603</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H28" s="7">
         <v>13</v>
       </c>
-      <c r="D28" s="7">
-        <v>11537</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H28" s="7">
-        <v>12</v>
-      </c>
       <c r="I28" s="7">
-        <v>11159</v>
+        <v>10969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>283</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
       </c>
       <c r="N28" s="7">
-        <v>22696</v>
+        <v>20571</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>475</v>
+        <v>68</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,49 +8076,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5955</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H29" s="7">
         <v>7</v>
       </c>
-      <c r="D29" s="7">
-        <v>7070</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H29" s="7">
-        <v>9</v>
-      </c>
       <c r="I29" s="7">
-        <v>6402</v>
+        <v>9953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
       </c>
       <c r="N29" s="7">
-        <v>13472</v>
+        <v>15908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>232</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,49 +8127,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18077</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H30" s="7">
         <v>31</v>
       </c>
-      <c r="D30" s="7">
-        <v>28277</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="H30" s="7">
-        <v>25</v>
-      </c>
       <c r="I30" s="7">
-        <v>18373</v>
+        <v>29362</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
       </c>
       <c r="N30" s="7">
-        <v>46650</v>
+        <v>47440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,49 +8178,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>94</v>
+      </c>
+      <c r="D31" s="7">
+        <v>71752</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H31" s="7">
         <v>107</v>
       </c>
-      <c r="D31" s="7">
-        <v>93577</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="H31" s="7">
-        <v>94</v>
-      </c>
       <c r="I31" s="7">
-        <v>74109</v>
+        <v>93299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>120</v>
+        <v>486</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M31" s="7">
         <v>201</v>
       </c>
       <c r="N31" s="7">
-        <v>167686</v>
+        <v>165051</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,49 +8229,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>334</v>
+      </c>
+      <c r="D32" s="7">
+        <v>263214</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H32" s="7">
         <v>330</v>
       </c>
-      <c r="D32" s="7">
-        <v>277861</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H32" s="7">
-        <v>334</v>
-      </c>
       <c r="I32" s="7">
-        <v>249773</v>
+        <v>295723</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="M32" s="7">
         <v>664</v>
       </c>
       <c r="N32" s="7">
-        <v>527634</v>
+        <v>558937</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,25 +8280,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>474</v>
+      </c>
+      <c r="D33" s="7">
+        <v>368601</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>488</v>
       </c>
-      <c r="D33" s="7">
-        <v>418322</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>474</v>
-      </c>
       <c r="I33" s="7">
-        <v>359816</v>
+        <v>439305</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -8340,7 +8313,7 @@
         <v>962</v>
       </c>
       <c r="N33" s="7">
-        <v>778138</v>
+        <v>807906</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -8354,7 +8327,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
